--- a/data_year/zb/人口/人口抽样调查样本数据/按年龄分性别比(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按年龄分性别比(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1151 +543,701 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>119.15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>117.16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109.77</v>
+      </c>
+      <c r="E2" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101.57</v>
+      </c>
+      <c r="G2" t="n">
+        <v>104.15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>104.74</v>
+      </c>
+      <c r="I2" t="n">
+        <v>104.22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>104.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>118.57</v>
+      </c>
+      <c r="L2" t="n">
+        <v>104.73</v>
+      </c>
+      <c r="M2" t="n">
+        <v>102.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>102.57</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100.41</v>
+      </c>
+      <c r="P2" t="n">
+        <v>99.73999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>63.07</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="U2" t="n">
+        <v>33.82</v>
+      </c>
       <c r="V2" t="n">
-        <v>104.31</v>
+        <v>105.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.22</v>
+        <v>118.46</v>
       </c>
       <c r="C3" t="n">
-        <v>111.69</v>
+        <v>117.82</v>
       </c>
       <c r="D3" t="n">
-        <v>110.61</v>
+        <v>111.15</v>
       </c>
       <c r="E3" t="n">
-        <v>98.67</v>
+        <v>104.68</v>
       </c>
       <c r="F3" t="n">
-        <v>98.66</v>
+        <v>101.29</v>
       </c>
       <c r="G3" t="n">
-        <v>100.39</v>
+        <v>103.64</v>
       </c>
       <c r="H3" t="n">
-        <v>100.99</v>
+        <v>104.58</v>
       </c>
       <c r="I3" t="n">
-        <v>104.5</v>
+        <v>104.36</v>
       </c>
       <c r="J3" t="n">
-        <v>102.56</v>
+        <v>103.72</v>
       </c>
       <c r="K3" t="n">
-        <v>119.66</v>
+        <v>118.52</v>
       </c>
       <c r="L3" t="n">
-        <v>101.26</v>
+        <v>103.93</v>
       </c>
       <c r="M3" t="n">
-        <v>104.74</v>
+        <v>102.46</v>
       </c>
       <c r="N3" t="n">
-        <v>102.94</v>
+        <v>101.56</v>
       </c>
       <c r="O3" t="n">
-        <v>101.14</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>101.17</v>
+        <v>98.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.89</v>
+        <v>91</v>
       </c>
       <c r="R3" t="n">
-        <v>72.64</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>56.43</v>
+        <v>63.64</v>
       </c>
       <c r="T3" t="n">
-        <v>45.98</v>
+        <v>50.63</v>
       </c>
       <c r="U3" t="n">
-        <v>46.88</v>
+        <v>30.12</v>
       </c>
       <c r="V3" t="n">
-        <v>104.26</v>
+        <v>105.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.69</v>
+        <v>117.3</v>
       </c>
       <c r="C4" t="n">
-        <v>112.43</v>
+        <v>117.86</v>
       </c>
       <c r="D4" t="n">
-        <v>107.42</v>
+        <v>111.18</v>
       </c>
       <c r="E4" t="n">
-        <v>96.84999999999999</v>
+        <v>109.72</v>
       </c>
       <c r="F4" t="n">
-        <v>96.81999999999999</v>
+        <v>100.54</v>
       </c>
       <c r="G4" t="n">
-        <v>100.11</v>
+        <v>103.18</v>
       </c>
       <c r="H4" t="n">
-        <v>100.67</v>
+        <v>104.31</v>
       </c>
       <c r="I4" t="n">
-        <v>101.04</v>
+        <v>104.46</v>
       </c>
       <c r="J4" t="n">
-        <v>102.33</v>
+        <v>103.4</v>
       </c>
       <c r="K4" t="n">
-        <v>119.1</v>
+        <v>118.68</v>
       </c>
       <c r="L4" t="n">
-        <v>103.08</v>
+        <v>103.44</v>
       </c>
       <c r="M4" t="n">
-        <v>103.77</v>
+        <v>103.06</v>
       </c>
       <c r="N4" t="n">
-        <v>104</v>
+        <v>100.7</v>
       </c>
       <c r="O4" t="n">
-        <v>100.79</v>
+        <v>99.69</v>
       </c>
       <c r="P4" t="n">
-        <v>97.89</v>
+        <v>97.11</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.68000000000001</v>
+        <v>89.78</v>
       </c>
       <c r="R4" t="n">
-        <v>72.12</v>
+        <v>82.14</v>
       </c>
       <c r="S4" t="n">
-        <v>56.68</v>
+        <v>66.75</v>
       </c>
       <c r="T4" t="n">
-        <v>46.8</v>
+        <v>55.33</v>
       </c>
       <c r="U4" t="n">
-        <v>36.83</v>
+        <v>34.05</v>
       </c>
       <c r="V4" t="n">
-        <v>103.45</v>
+        <v>105.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.66</v>
+        <v>116.87</v>
       </c>
       <c r="C5" t="n">
-        <v>114.2</v>
+        <v>118.54</v>
       </c>
       <c r="D5" t="n">
-        <v>107.88</v>
+        <v>114.76</v>
       </c>
       <c r="E5" t="n">
-        <v>93.13</v>
+        <v>106.83</v>
       </c>
       <c r="F5" t="n">
-        <v>94.43000000000001</v>
+        <v>101.54</v>
       </c>
       <c r="G5" t="n">
-        <v>96.75</v>
+        <v>102.47</v>
       </c>
       <c r="H5" t="n">
-        <v>96.98999999999999</v>
+        <v>104.32</v>
       </c>
       <c r="I5" t="n">
-        <v>98.62</v>
+        <v>104.44</v>
       </c>
       <c r="J5" t="n">
-        <v>100.72</v>
+        <v>103.4</v>
       </c>
       <c r="K5" t="n">
-        <v>119.3</v>
+        <v>119.16</v>
       </c>
       <c r="L5" t="n">
-        <v>101.4</v>
+        <v>102.68</v>
       </c>
       <c r="M5" t="n">
-        <v>103.91</v>
+        <v>103.53</v>
       </c>
       <c r="N5" t="n">
-        <v>105.13</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>102.96</v>
+        <v>97.33</v>
       </c>
       <c r="P5" t="n">
-        <v>97.01000000000001</v>
+        <v>99.47</v>
       </c>
       <c r="Q5" t="n">
-        <v>87.83</v>
+        <v>91.28</v>
       </c>
       <c r="R5" t="n">
-        <v>73.5</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>56.71</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>43.35</v>
+        <v>49.45</v>
       </c>
       <c r="U5" t="n">
-        <v>32.283778397768</v>
+        <v>43.98</v>
       </c>
       <c r="V5" t="n">
-        <v>102.19</v>
+        <v>105.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.72</v>
+        <v>116.23</v>
       </c>
       <c r="C6" t="n">
-        <v>116.99</v>
+        <v>118.59</v>
       </c>
       <c r="D6" t="n">
-        <v>111.99</v>
+        <v>116.12</v>
       </c>
       <c r="E6" t="n">
-        <v>95.84</v>
+        <v>108.51</v>
       </c>
       <c r="F6" t="n">
-        <v>93.79000000000001</v>
+        <v>102.24</v>
       </c>
       <c r="G6" t="n">
-        <v>96.3</v>
+        <v>101.94</v>
       </c>
       <c r="H6" t="n">
-        <v>96.73999999999999</v>
+        <v>104.13</v>
       </c>
       <c r="I6" t="n">
-        <v>97.90000000000001</v>
+        <v>104.42</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>103.28</v>
       </c>
       <c r="K6" t="n">
-        <v>123.05</v>
+        <v>119.09</v>
       </c>
       <c r="L6" t="n">
-        <v>101.51</v>
+        <v>102.63</v>
       </c>
       <c r="M6" t="n">
-        <v>102.38</v>
+        <v>103.45</v>
       </c>
       <c r="N6" t="n">
-        <v>104.21</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>104.73</v>
+        <v>99.91</v>
       </c>
       <c r="P6" t="n">
-        <v>97.54000000000001</v>
+        <v>96.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.37</v>
+        <v>90.7</v>
       </c>
       <c r="R6" t="n">
-        <v>74</v>
+        <v>78.94</v>
       </c>
       <c r="S6" t="n">
-        <v>60.48</v>
+        <v>67.03</v>
       </c>
       <c r="T6" t="n">
-        <v>47.86</v>
+        <v>53.97</v>
       </c>
       <c r="U6" t="n">
-        <v>36.89</v>
+        <v>39.3571861734385</v>
       </c>
       <c r="V6" t="n">
-        <v>102.71</v>
+        <v>105.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.59</v>
+        <v>115.62</v>
       </c>
       <c r="C7" t="n">
-        <v>116.45</v>
+        <v>118.54</v>
       </c>
       <c r="D7" t="n">
-        <v>112.81</v>
+        <v>117.05</v>
       </c>
       <c r="E7" t="n">
-        <v>96.09999999999999</v>
+        <v>109.62</v>
       </c>
       <c r="F7" t="n">
-        <v>94.27</v>
+        <v>103.41</v>
       </c>
       <c r="G7" t="n">
-        <v>96.59</v>
+        <v>101.3</v>
       </c>
       <c r="H7" t="n">
-        <v>98.03</v>
+        <v>103.8</v>
       </c>
       <c r="I7" t="n">
-        <v>99.06</v>
+        <v>104.21</v>
       </c>
       <c r="J7" t="n">
-        <v>99.48999999999999</v>
+        <v>103.43</v>
       </c>
       <c r="K7" t="n">
-        <v>120.53</v>
+        <v>118.86</v>
       </c>
       <c r="L7" t="n">
-        <v>101.67</v>
+        <v>102.86</v>
       </c>
       <c r="M7" t="n">
-        <v>102.04</v>
+        <v>103.03</v>
       </c>
       <c r="N7" t="n">
-        <v>103.58</v>
+        <v>99.77</v>
       </c>
       <c r="O7" t="n">
-        <v>103.79</v>
+        <v>97.16</v>
       </c>
       <c r="P7" t="n">
-        <v>97.23999999999999</v>
+        <v>96.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.26000000000001</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>77.95</v>
+        <v>81.76000000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>65.79000000000001</v>
+        <v>68.73</v>
       </c>
       <c r="T7" t="n">
-        <v>41.97</v>
+        <v>49.58</v>
       </c>
       <c r="U7" t="n">
-        <v>36.22</v>
+        <v>48.25</v>
       </c>
       <c r="V7" t="n">
-        <v>102.86</v>
+        <v>104.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.26</v>
+        <v>114.52</v>
       </c>
       <c r="C8" t="n">
-        <v>115.91</v>
+        <v>118.46</v>
       </c>
       <c r="D8" t="n">
-        <v>114.1</v>
+        <v>117.7</v>
       </c>
       <c r="E8" t="n">
-        <v>97.84999999999999</v>
+        <v>110.98</v>
       </c>
       <c r="F8" t="n">
-        <v>96.34</v>
+        <v>104.47</v>
       </c>
       <c r="G8" t="n">
-        <v>98.13</v>
+        <v>101.04</v>
       </c>
       <c r="H8" t="n">
-        <v>97.75</v>
+        <v>103.29</v>
       </c>
       <c r="I8" t="n">
-        <v>99.23</v>
+        <v>104.06</v>
       </c>
       <c r="J8" t="n">
-        <v>98.64</v>
+        <v>103.56</v>
       </c>
       <c r="K8" t="n">
-        <v>121.4</v>
+        <v>118.55</v>
       </c>
       <c r="L8" t="n">
-        <v>101.36</v>
+        <v>102.52</v>
       </c>
       <c r="M8" t="n">
-        <v>102.7</v>
+        <v>102.25</v>
       </c>
       <c r="N8" t="n">
-        <v>103.27</v>
+        <v>100.03</v>
       </c>
       <c r="O8" t="n">
-        <v>102.39</v>
+        <v>96.23</v>
       </c>
       <c r="P8" t="n">
-        <v>98.87</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.14</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>80.08</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>65.34</v>
+        <v>71.66</v>
       </c>
       <c r="T8" t="n">
-        <v>45.17</v>
+        <v>50.61</v>
       </c>
       <c r="U8" t="n">
-        <v>41.17</v>
+        <v>40.36</v>
       </c>
       <c r="V8" t="n">
-        <v>103.13</v>
+        <v>104.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.66</v>
+        <v>113.91</v>
       </c>
       <c r="C9" t="n">
-        <v>118.27</v>
+        <v>118.62</v>
       </c>
       <c r="D9" t="n">
-        <v>112.26</v>
+        <v>118.14</v>
       </c>
       <c r="E9" t="n">
-        <v>100.84</v>
+        <v>112.89</v>
       </c>
       <c r="F9" t="n">
-        <v>99.67</v>
+        <v>105.39</v>
       </c>
       <c r="G9" t="n">
-        <v>97.31999999999999</v>
+        <v>101.05</v>
       </c>
       <c r="H9" t="n">
-        <v>98.34999999999999</v>
+        <v>102.84</v>
       </c>
       <c r="I9" t="n">
-        <v>98.88</v>
+        <v>103.75</v>
       </c>
       <c r="J9" t="n">
-        <v>97.70999999999999</v>
+        <v>103.64</v>
       </c>
       <c r="K9" t="n">
-        <v>122.65</v>
+        <v>118.03</v>
       </c>
       <c r="L9" t="n">
-        <v>101.31</v>
+        <v>102.15</v>
       </c>
       <c r="M9" t="n">
-        <v>100.18</v>
+        <v>101.65</v>
       </c>
       <c r="N9" t="n">
-        <v>103.68</v>
+        <v>100.5</v>
       </c>
       <c r="O9" t="n">
-        <v>102.21</v>
+        <v>96.94</v>
       </c>
       <c r="P9" t="n">
-        <v>100.15</v>
+        <v>94.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.36</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>78.27</v>
+        <v>76.97</v>
       </c>
       <c r="S9" t="n">
-        <v>69.93000000000001</v>
+        <v>71.16</v>
       </c>
       <c r="T9" t="n">
-        <v>44.38</v>
+        <v>48.74</v>
       </c>
       <c r="U9" t="n">
-        <v>36.83</v>
+        <v>40.07</v>
       </c>
       <c r="V9" t="n">
-        <v>103.27</v>
+        <v>104.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.15</v>
+        <v>113.62</v>
       </c>
       <c r="C10" t="n">
-        <v>117.16</v>
+        <v>119.1</v>
       </c>
       <c r="D10" t="n">
-        <v>109.77</v>
+        <v>118.39</v>
       </c>
       <c r="E10" t="n">
-        <v>103.6</v>
+        <v>114.61</v>
       </c>
       <c r="F10" t="n">
-        <v>101.57</v>
+        <v>106.65</v>
       </c>
       <c r="G10" t="n">
-        <v>104.15</v>
+        <v>101.28</v>
       </c>
       <c r="H10" t="n">
-        <v>104.74</v>
+        <v>102.1</v>
       </c>
       <c r="I10" t="n">
-        <v>104.22</v>
+        <v>103.77</v>
       </c>
       <c r="J10" t="n">
-        <v>104.08</v>
+        <v>103.58</v>
       </c>
       <c r="K10" t="n">
-        <v>118.57</v>
+        <v>116.85</v>
       </c>
       <c r="L10" t="n">
-        <v>104.73</v>
+        <v>102.1</v>
       </c>
       <c r="M10" t="n">
-        <v>102.14</v>
+        <v>100.81</v>
       </c>
       <c r="N10" t="n">
-        <v>102.57</v>
+        <v>100.74</v>
       </c>
       <c r="O10" t="n">
-        <v>100.41</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73999999999999</v>
+        <v>94.11</v>
       </c>
       <c r="Q10" t="n">
-        <v>88.79000000000001</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>80.17</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>63.07</v>
+        <v>70.37</v>
       </c>
       <c r="T10" t="n">
-        <v>45.04</v>
+        <v>51.53</v>
       </c>
       <c r="U10" t="n">
-        <v>33.82</v>
+        <v>35.29</v>
       </c>
       <c r="V10" t="n">
-        <v>105.17</v>
+        <v>104.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.46</v>
+        <v>110.37</v>
       </c>
       <c r="C11" t="n">
-        <v>117.82</v>
+        <v>114.86</v>
       </c>
       <c r="D11" t="n">
-        <v>111.15</v>
+        <v>116.17</v>
       </c>
       <c r="E11" t="n">
-        <v>104.68</v>
+        <v>113.2</v>
       </c>
       <c r="F11" t="n">
-        <v>101.29</v>
+        <v>110.68</v>
       </c>
       <c r="G11" t="n">
-        <v>103.64</v>
+        <v>106.69</v>
       </c>
       <c r="H11" t="n">
-        <v>104.58</v>
+        <v>105.76</v>
       </c>
       <c r="I11" t="n">
-        <v>104.36</v>
+        <v>105</v>
       </c>
       <c r="J11" t="n">
-        <v>103.72</v>
+        <v>103.73</v>
       </c>
       <c r="K11" t="n">
-        <v>118.52</v>
+        <v>112.96</v>
       </c>
       <c r="L11" t="n">
-        <v>103.93</v>
+        <v>101.74</v>
       </c>
       <c r="M11" t="n">
-        <v>102.46</v>
+        <v>100.8</v>
       </c>
       <c r="N11" t="n">
-        <v>101.56</v>
+        <v>99.88</v>
       </c>
       <c r="O11" t="n">
-        <v>99.34999999999999</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>98.3</v>
+        <v>94.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="R11" t="n">
-        <v>80.79000000000001</v>
+        <v>82.27</v>
       </c>
       <c r="S11" t="n">
-        <v>63.64</v>
+        <v>69.86</v>
       </c>
       <c r="T11" t="n">
-        <v>50.63</v>
+        <v>63.07</v>
       </c>
       <c r="U11" t="n">
-        <v>30.12</v>
+        <v>43.2</v>
       </c>
       <c r="V11" t="n">
-        <v>105.12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>117.86</v>
-      </c>
-      <c r="D12" t="n">
-        <v>111.18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>109.72</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100.54</v>
-      </c>
-      <c r="G12" t="n">
-        <v>103.18</v>
-      </c>
-      <c r="H12" t="n">
-        <v>104.31</v>
-      </c>
-      <c r="I12" t="n">
-        <v>104.46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>118.68</v>
-      </c>
-      <c r="L12" t="n">
-        <v>103.44</v>
-      </c>
-      <c r="M12" t="n">
-        <v>103.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>99.69</v>
-      </c>
-      <c r="P12" t="n">
-        <v>97.11</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>89.78</v>
-      </c>
-      <c r="R12" t="n">
-        <v>82.14</v>
-      </c>
-      <c r="S12" t="n">
-        <v>66.75</v>
-      </c>
-      <c r="T12" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="U12" t="n">
-        <v>34.05</v>
-      </c>
-      <c r="V12" t="n">
-        <v>105.22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>116.87</v>
-      </c>
-      <c r="C13" t="n">
-        <v>118.54</v>
-      </c>
-      <c r="D13" t="n">
-        <v>114.76</v>
-      </c>
-      <c r="E13" t="n">
-        <v>106.83</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.54</v>
-      </c>
-      <c r="G13" t="n">
-        <v>102.47</v>
-      </c>
-      <c r="H13" t="n">
-        <v>104.32</v>
-      </c>
-      <c r="I13" t="n">
-        <v>104.44</v>
-      </c>
-      <c r="J13" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>119.16</v>
-      </c>
-      <c r="L13" t="n">
-        <v>102.68</v>
-      </c>
-      <c r="M13" t="n">
-        <v>103.53</v>
-      </c>
-      <c r="N13" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="O13" t="n">
-        <v>97.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>99.47</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>91.28</v>
-      </c>
-      <c r="R13" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="S13" t="n">
-        <v>66.79000000000001</v>
-      </c>
-      <c r="T13" t="n">
-        <v>49.45</v>
-      </c>
-      <c r="U13" t="n">
-        <v>43.98</v>
-      </c>
-      <c r="V13" t="n">
-        <v>105.04</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>116.23</v>
-      </c>
-      <c r="C14" t="n">
-        <v>118.59</v>
-      </c>
-      <c r="D14" t="n">
-        <v>116.12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>108.51</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.24</v>
-      </c>
-      <c r="G14" t="n">
-        <v>101.94</v>
-      </c>
-      <c r="H14" t="n">
-        <v>104.13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>104.42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>103.28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>119.09</v>
-      </c>
-      <c r="L14" t="n">
-        <v>102.63</v>
-      </c>
-      <c r="M14" t="n">
-        <v>103.45</v>
-      </c>
-      <c r="N14" t="n">
-        <v>99.73999999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>99.91</v>
-      </c>
-      <c r="P14" t="n">
-        <v>96.36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>78.94</v>
-      </c>
-      <c r="S14" t="n">
-        <v>67.03</v>
-      </c>
-      <c r="T14" t="n">
-        <v>53.97</v>
-      </c>
-      <c r="U14" t="n">
-        <v>39.3571861734385</v>
-      </c>
-      <c r="V14" t="n">
-        <v>105.02</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>115.62</v>
-      </c>
-      <c r="C15" t="n">
-        <v>118.54</v>
-      </c>
-      <c r="D15" t="n">
-        <v>117.05</v>
-      </c>
-      <c r="E15" t="n">
-        <v>109.62</v>
-      </c>
-      <c r="F15" t="n">
-        <v>103.41</v>
-      </c>
-      <c r="G15" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>104.21</v>
-      </c>
-      <c r="J15" t="n">
-        <v>103.43</v>
-      </c>
-      <c r="K15" t="n">
-        <v>118.86</v>
-      </c>
-      <c r="L15" t="n">
-        <v>102.86</v>
-      </c>
-      <c r="M15" t="n">
-        <v>103.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>99.77</v>
-      </c>
-      <c r="O15" t="n">
-        <v>97.16</v>
-      </c>
-      <c r="P15" t="n">
-        <v>96.36</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>91.79000000000001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>81.76000000000001</v>
-      </c>
-      <c r="S15" t="n">
-        <v>68.73</v>
-      </c>
-      <c r="T15" t="n">
-        <v>49.58</v>
-      </c>
-      <c r="U15" t="n">
-        <v>48.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>104.98</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>114.52</v>
-      </c>
-      <c r="C16" t="n">
-        <v>118.46</v>
-      </c>
-      <c r="D16" t="n">
-        <v>117.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>110.98</v>
-      </c>
-      <c r="F16" t="n">
-        <v>104.47</v>
-      </c>
-      <c r="G16" t="n">
-        <v>101.04</v>
-      </c>
-      <c r="H16" t="n">
-        <v>103.29</v>
-      </c>
-      <c r="I16" t="n">
-        <v>104.06</v>
-      </c>
-      <c r="J16" t="n">
-        <v>103.56</v>
-      </c>
-      <c r="K16" t="n">
-        <v>118.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>102.52</v>
-      </c>
-      <c r="M16" t="n">
-        <v>102.25</v>
-      </c>
-      <c r="N16" t="n">
-        <v>100.03</v>
-      </c>
-      <c r="O16" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>93.98999999999999</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>91.45999999999999</v>
-      </c>
-      <c r="R16" t="n">
-        <v>82.76000000000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>71.66</v>
-      </c>
-      <c r="T16" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="U16" t="n">
-        <v>40.36</v>
-      </c>
-      <c r="V16" t="n">
-        <v>104.81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>113.91</v>
-      </c>
-      <c r="C17" t="n">
-        <v>118.62</v>
-      </c>
-      <c r="D17" t="n">
-        <v>118.14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>112.89</v>
-      </c>
-      <c r="F17" t="n">
-        <v>105.39</v>
-      </c>
-      <c r="G17" t="n">
-        <v>101.05</v>
-      </c>
-      <c r="H17" t="n">
-        <v>102.84</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103.75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>103.64</v>
-      </c>
-      <c r="K17" t="n">
-        <v>118.03</v>
-      </c>
-      <c r="L17" t="n">
-        <v>102.15</v>
-      </c>
-      <c r="M17" t="n">
-        <v>101.65</v>
-      </c>
-      <c r="N17" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>96.94</v>
-      </c>
-      <c r="P17" t="n">
-        <v>94.42</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>89.15000000000001</v>
-      </c>
-      <c r="R17" t="n">
-        <v>76.97</v>
-      </c>
-      <c r="S17" t="n">
-        <v>71.16</v>
-      </c>
-      <c r="T17" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="U17" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="V17" t="n">
-        <v>104.64</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>113.62</v>
-      </c>
-      <c r="C18" t="n">
-        <v>119.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>118.39</v>
-      </c>
-      <c r="E18" t="n">
-        <v>114.61</v>
-      </c>
-      <c r="F18" t="n">
-        <v>106.65</v>
-      </c>
-      <c r="G18" t="n">
-        <v>101.28</v>
-      </c>
-      <c r="H18" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>103.77</v>
-      </c>
-      <c r="J18" t="n">
-        <v>103.58</v>
-      </c>
-      <c r="K18" t="n">
-        <v>116.85</v>
-      </c>
-      <c r="L18" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>100.81</v>
-      </c>
-      <c r="N18" t="n">
-        <v>100.74</v>
-      </c>
-      <c r="O18" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="P18" t="n">
-        <v>94.11</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>87.76000000000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>77.23999999999999</v>
-      </c>
-      <c r="S18" t="n">
-        <v>70.37</v>
-      </c>
-      <c r="T18" t="n">
-        <v>51.53</v>
-      </c>
-      <c r="U18" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="V18" t="n">
-        <v>104.46</v>
+        <v>104.61</v>
       </c>
     </row>
   </sheetData>
